--- a/old_database/crypto/fastqFiles/fastq_2550.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_2550.xlsx
@@ -37,7 +37,7 @@
     <t>11.01.17</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_2550</t>
   </si>
   <si>
     <t>sequence/run_2550_samples/2550_Brent_1_GTAC1_TGAGGTT_S1_R1_001.fastq</t>
